--- a/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,44; 99,05</t>
+          <t>94,43; 98,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,32; 89,04</t>
+          <t>70,3; 89,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,55; 98,3</t>
+          <t>92,23; 98,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,08; 80,83</t>
+          <t>58,54; 80,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,77; 98,24</t>
+          <t>94,81; 98,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,93; 83,13</t>
+          <t>68,75; 82,56</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,0; 98,7</t>
+          <t>95,06; 98,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,69; 88,56</t>
+          <t>76,75; 88,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,56; 99,58</t>
+          <t>96,62; 99,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,96; 72,84</t>
+          <t>51,18; 72,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,86</t>
+          <t>96,57; 98,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 79,9</t>
+          <t>66,81; 79,63</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,77</t>
+          <t>97,84; 99,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,74; 85,85</t>
+          <t>77,09; 85,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,57; 98,61</t>
+          <t>93,93; 98,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,33; 73,14</t>
+          <t>62,58; 73,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,11; 99,14</t>
+          <t>97,06; 99,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,18; 79,78</t>
+          <t>72,91; 79,64</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,2; 100,0</t>
+          <t>97,82; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 87,39</t>
+          <t>49,58; 87,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,09; 98,32</t>
+          <t>93,26; 97,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,19; 73,75</t>
+          <t>64,98; 73,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,78; 99,11</t>
+          <t>96,81; 99,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,72; 80,29</t>
+          <t>56,64; 80,06</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,99; 100,0</t>
+          <t>98,0; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,14; 85,13</t>
+          <t>77,08; 85,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>93,8; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,41; 75,63</t>
+          <t>65,73; 75,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,73</t>
+          <t>97,76; 99,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,09; 80,36</t>
+          <t>74,09; 80,57</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,08; 99,7</t>
+          <t>96,86; 99,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,68; 88,93</t>
+          <t>83,0; 89,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,31; 100,0</t>
+          <t>91,38; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,76; 92,81</t>
+          <t>64,77; 93,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,48</t>
+          <t>96,86; 99,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,74; 89,91</t>
+          <t>78,61; 90,92</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>98,1; 99,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,73; 84,4</t>
+          <t>72,87; 84,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>96,09; 98,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,13; 77,35</t>
+          <t>66,99; 77,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>97,56; 98,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,05; 79,52</t>
+          <t>72,78; 79,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,43; 98,99</t>
+          <t>94,43; 99,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,23; 98,31</t>
+          <t>92,39; 98,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,81; 98,1</t>
+          <t>94,77; 98,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,06; 98,6</t>
+          <t>95,21; 98,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,58</t>
+          <t>96,52; 99,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,57; 98,83</t>
+          <t>96,33; 98,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,77</t>
+          <t>97,87; 99,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,93; 98,77</t>
+          <t>93,86; 98,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,06; 99,2</t>
+          <t>97,12; 99,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,82; 100,0</t>
+          <t>98,04; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,26; 97,96</t>
+          <t>93,42; 98,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,81; 99,01</t>
+          <t>96,81; 99,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,8; 100,0</t>
+          <t>93,91; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,76; 99,73</t>
+          <t>97,72; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,86; 99,7</t>
+          <t>97,11; 99,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,38; 100,0</t>
+          <t>92,25; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,86; 99,48</t>
+          <t>96,77; 99,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,16</t>
+          <t>98,13; 99,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,02</t>
+          <t>96,13; 98,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,56; 98,61</t>
+          <t>97,58; 98,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,43; 99,04</t>
+          <t>94,44; 99,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,3; 89,47</t>
+          <t>70,32; 89,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,39; 98,32</t>
+          <t>92,55; 98,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,54; 80,18</t>
+          <t>60,08; 80,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,77; 98,34</t>
+          <t>94,77; 98,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,75; 82,56</t>
+          <t>68,93; 83,13</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,21; 98,75</t>
+          <t>95,0; 98,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,75; 88,64</t>
+          <t>76,69; 88,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,52; 99,58</t>
+          <t>96,56; 99,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 72,69</t>
+          <t>51,96; 72,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,33; 98,8</t>
+          <t>96,46; 98,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,81; 79,63</t>
+          <t>67,62; 79,9</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,87; 99,77</t>
+          <t>98,05; 99,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,09; 85,96</t>
+          <t>77,74; 85,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,86; 98,84</t>
+          <t>93,57; 98,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,58; 73,36</t>
+          <t>62,33; 73,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,12; 99,18</t>
+          <t>97,11; 99,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,91; 79,64</t>
+          <t>73,18; 79,78</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,04; 100,0</t>
+          <t>98,2; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,58; 87,49</t>
+          <t>55,84; 87,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,42; 98,33</t>
+          <t>93,09; 98,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,98; 73,98</t>
+          <t>65,19; 73,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,81; 99,02</t>
+          <t>96,78; 99,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,64; 80,06</t>
+          <t>57,72; 80,29</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,0; 100,0</t>
+          <t>97,99; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,08; 85,45</t>
+          <t>77,14; 85,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,91; 100,0</t>
+          <t>93,77; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,73; 75,53</t>
+          <t>65,41; 75,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,72; 100,0</t>
+          <t>98,0; 99,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,09; 80,57</t>
+          <t>74,09; 80,36</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,11; 99,7</t>
+          <t>97,08; 99,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,0; 89,05</t>
+          <t>82,68; 88,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,25; 100,0</t>
+          <t>92,31; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,77; 93,71</t>
+          <t>64,76; 92,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,46</t>
+          <t>96,54; 99,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,61; 90,92</t>
+          <t>78,74; 89,91</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,21</t>
+          <t>98,12; 99,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,87; 84,46</t>
+          <t>73,73; 84,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,13; 98,1</t>
+          <t>95,93; 98,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,99; 77,64</t>
+          <t>67,13; 77,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,58; 98,61</t>
+          <t>97,62; 98,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,78; 79,5</t>
+          <t>73,05; 79,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>76,24%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,32; 89,04</t>
+          <t>69,76; 89,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,08; 80,83</t>
+          <t>57,83; 79,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,93; 83,13</t>
+          <t>67,78; 82,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>68,26%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,69; 88,56</t>
+          <t>77,64; 89,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,96; 72,84</t>
+          <t>21,72; 72,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 79,9</t>
+          <t>41,59; 79,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>77,05%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,74; 85,85</t>
+          <t>78,46; 86,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,33; 73,14</t>
+          <t>62,65; 73,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,18; 79,78</t>
+          <t>73,85; 80,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>58,56%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 87,39</t>
+          <t>23,98; 87,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,19; 73,75</t>
+          <t>65,92; 74,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,72; 80,29</t>
+          <t>27,67; 80,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,38%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,14; 85,13</t>
+          <t>77,6; 85,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,41; 75,63</t>
+          <t>66,29; 76,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,09; 80,36</t>
+          <t>74,62; 80,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>89,66%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,08; 99,7</t>
+          <t>96,07; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,68; 88,93</t>
+          <t>84,91; 91,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,31; 100,0</t>
+          <t>91,81; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,76; 92,81</t>
+          <t>69,06; 97,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,48</t>
+          <t>96,54; 99,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,74; 89,91</t>
+          <t>82,15; 96,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>75,33%</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>95,69; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75,93; 87,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>78,89; 100,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 68,49</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93,82; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>70,51; 80,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>74,43%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97,17%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>70,4%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98,15%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>72,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>98,12; 99,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>73,73; 84,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>50,42; 84,7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>95,93; 98,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>67,13; 77,35</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>61,7; 81,21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>97,62; 98,55</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>73,05; 79,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>56,85; 79,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +524,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +545,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>39,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,96%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,44; 99,05</t>
+          <t>49,63; 58,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,76; 89,05</t>
+          <t>53,38; 63,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,55; 98,3</t>
+          <t>53,27; 63,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,83; 79,46</t>
+          <t>33,55; 50,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,77; 98,24</t>
+          <t>32,54; 41,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,78; 82,75</t>
+          <t>34,32; 44,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36,43; 45,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 39,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42,36; 48,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45,37; 52,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46,84; 53,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32,53; 44,0</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>59,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>30,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,0; 98,7</t>
+          <t>61,43; 69,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,64; 89,11</t>
+          <t>59,69; 67,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,56; 99,58</t>
+          <t>55,64; 64,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,72; 72,18</t>
+          <t>47,94; 60,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,86</t>
+          <t>29,13; 36,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,59; 79,64</t>
+          <t>27,18; 34,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35,27; 42,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 33,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 53,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44,84; 50,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46,57; 52,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,15; 44,54</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40,2%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,77</t>
+          <t>56,05; 64,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,46; 86,48</t>
+          <t>55,64; 63,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,57; 98,61</t>
+          <t>58,94; 66,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,65; 73,45</t>
+          <t>48,24; 56,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,11; 99,14</t>
+          <t>26,94; 33,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,85; 80,28</t>
+          <t>25,49; 32,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 39,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 31,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41,2; 47,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41,21; 46,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47,14; 52,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37,46; 43,22</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>31,05%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,2; 100,0</t>
+          <t>53,98; 62,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 87,72</t>
+          <t>56,66; 64,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,09; 98,32</t>
+          <t>55,06; 63,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,92; 74,28</t>
+          <t>17,82; 55,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,78; 99,11</t>
+          <t>21,9; 29,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,67; 80,77</t>
+          <t>27,26; 35,26</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,4; 42,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22,75; 30,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38,68; 44,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42,37; 49,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45,96; 51,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 40,6</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>21,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,09%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,99; 100,0</t>
+          <t>39,18; 49,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,6; 85,46</t>
+          <t>45,51; 55,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>53,07; 62,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,29; 76,22</t>
+          <t>42,98; 50,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,73</t>
+          <t>13,51; 21,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,62; 80,89</t>
+          <t>17,47; 25,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 29,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 27,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 34,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 38,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37,67; 44,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,68; 39,07</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>48,22%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,07; 100,0</t>
+          <t>37,25; 48,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,91; 91,69</t>
+          <t>40,68; 53,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,81; 100,0</t>
+          <t>45,34; 56,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,06; 97,8</t>
+          <t>47,19; 56,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,61</t>
+          <t>5,51; 11,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,15; 96,39</t>
+          <t>9,11; 16,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 21,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 77,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 27,45</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 32,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29,15; 36,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33,76; 76,24</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,99%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,69; 100,0</t>
+          <t>27,51; 40,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,93; 87,44</t>
+          <t>26,9; 39,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,89; 100,0</t>
+          <t>30,05; 41,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,62; 68,49</t>
+          <t>30,65; 39,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,82; 100,0</t>
+          <t>2,64; 7,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,51; 80,65</t>
+          <t>3,34; 7,92</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 11,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 8,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 19,28</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 19,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 21,56</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 20,48</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40,42%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36,71%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>53,24; 56,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,42; 84,7</t>
+          <t>54,36; 58,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>55,41; 58,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,7; 81,21</t>
+          <t>36,17; 49,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>23,05; 25,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,85; 79,54</t>
+          <t>24,28; 27,35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 32,44</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 40,2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 40,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 41,71</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>42,34; 44,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 42,68</t>
         </is>
       </c>
     </row>
@@ -1238,18 +1774,1853 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumió bebidas alcohólicas en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>264214</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>257052</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>238128</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>169903</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>169100</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>166446</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>162059</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100851</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>433314</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>423498</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>400187</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>270753</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>242747; 286902</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>235033; 277515</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>216121; 257868</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>134189; 202688</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>151167; 192814</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>146297; 188160</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>142814; 179778</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78515; 123353</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>403913; 465406</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>393116; 450784</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>373618; 429711</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>231975; 313811</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>473233</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>414722</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>344192</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>230135</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>206026</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>183193</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>217647</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142253</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>679259</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>597916</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>561839</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>372388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>443805; 498873</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>390230; 439459</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>321318; 369664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>203035; 254142</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>181902; 230660</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>162271; 207728</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>195988; 238812</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89313; 172415</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>642961; 716600</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>560803; 632258</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>527736; 594322</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>281636; 416113</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>378409</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>389425</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>409034</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>282184</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>206411</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>200358</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>233469</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>150814</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>584820</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>589784</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>642503</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>432997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>353935; 405127</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>363079; 413292</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>382388; 434015</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>258676; 304363</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>183813; 230144</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>175700; 225371</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>208483; 259334</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>133826; 167718</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>541252; 619811</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>552915; 626072</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>612594; 678189</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>403557; 465544</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>299070</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>353309</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>370178</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>344267</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>130267</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>186650</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>242127</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>192392</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>429337</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>539959</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>612305</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>536659</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>276543; 320845</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>329393; 377238</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>345562; 396952</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>157400; 490811</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>111737; 150249</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>163842; 211961</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>217470; 268494</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>161989; 213746</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>395523; 460006</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>500942; 579690</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>579003; 651764</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>299719; 647740</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>168690</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>205679</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>264273</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>264194</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>69490</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94540</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>121266</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>134297</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>238180</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>300220</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>385540</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>398490</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>149191; 189091</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>185894; 228188</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>241767; 283827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>240780; 285212</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>54461; 85138</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>76385; 113072</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>101843; 143032</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>119299; 148430</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>214317; 266798</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>271167; 327055</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>354714; 416877</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>371879; 431401</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>122926</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>138446</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>163855</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>189996</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27161</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43813</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64800</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>280153</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>150086</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>182259</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>228655</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>470149</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>107387; 138970</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>119910; 157468</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>146269; 182569</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>173341; 206868</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>18883; 38517</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>31650; 57915</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>49622; 81182</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>107776; 471068</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>130128; 173263</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>154728; 206639</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>203640; 253871</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>329138; 743419</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69554</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>79194</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88345</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>99624</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15400</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19903</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>30619</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27433</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>84954</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>99097</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>118964</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>127058</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57275; 83771</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>65501; 96544</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>75054; 102933</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>86553; 112119</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8792; 24617</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12940; 30731</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19796; 46239</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21076; 35613</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>68590; 104310</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>81345; 121101</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>98462; 139091</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>112035; 144612</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2552</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1776095</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1837828</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1878006</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1580302</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>823855</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>894904</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1071986</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1028192</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2599950</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2732732</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2949993</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2608494</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1721081; 1830050</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1779918; 1902363</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1821769; 1933711</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1248887; 1719386</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>774438; 871859</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>846381; 953364</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1019800; 1131476</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>851493; 1468125</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2521204; 2681089</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2656385; 2820098</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2868467; 3039082</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2375497; 3032422</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>